--- a/similarities/split_global/harmonic_similarity_timestamps_217.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_217.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,386 +484,390 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min']]</t>
+          <t>['B', 'E', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['A:maj', 'D:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:16.759569', '0:00:31.190770')]</t>
+          <t>('0:00:28.575754', '0:00:34.292335')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:24.220000', '0:00:30.480000')]</t>
+          <t>('0:01:12.543000', '0:01:20.563000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=28.575754</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=24.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=72.543</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:16.760000')]</t>
+          <t>('0:00:24.760000', '0:00:32.420000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+          <t>('0:00:23.400000', '0:00:31.320000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['E:min7', 'A:7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['E:min7', 'A:7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:02.640000', '0:03:04.840000'), ('0:00:24.980000', '0:00:31.820000')]</t>
+          <t>('0:00:37.990000', '0:00:45.130000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:44.620000', '0:00:47.460000'), ('0:01:41.180000', '0:01:53.780000')]</t>
+          <t>('0:00:50.680000', '0:00:57.380000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=24.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=37.99</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=44.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=101.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=50.68</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_8</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:32.520000', '0:00:47.400000')]</t>
+          <t>('0:00:01.600000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=32.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=94.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>jaah_84</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab:maj7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
+          <t>('0:01:46.710000', '0:01:52.340000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:38.620000', '0:00:46.840000')]</t>
+          <t>('0:00:22.170000', '0:00:31.310000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=94.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=106.71</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-84#t=22.17</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.680000', '0:00:07.500000')]</t>
+          <t>('0:00:19.500000', '0:00:49.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
+          <t>('0:01:10.380000', '0:01:30.980000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=1.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=70.38</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>['A:min', 'E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:56.600000')]</t>
+          <t>('0:01:27.320000', '0:01:41.320000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:03.740000')]</t>
+          <t>('0:00:03.831000', '0:00:12.567000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=87.32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=3.831</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -872,334 +876,346 @@
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:06.940000', '0:00:17.120000')]</t>
+          <t>('0:00:31.434580', '0:00:34.406734')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
+          <t>('0:01:00.898000', '0:01:07.056000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=31.43458</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:37.820000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:53.480000', '0:00:57.460000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.780000', '0:00:24.560000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=53.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=18.78']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'A#:maj']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'Ab']]</t>
+          <t>['Bb', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:43.940000', '0:00:52.380000')]</t>
+          <t>('0:00:14.391133', '0:00:19.963922')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:45.670000', '0:00:51.020000')]</t>
+          <t>('0:00:30.325000', '0:00:35.471000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=43.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=14.391133</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=30.325</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:00:36.420000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:01:26.940000', '0:01:37.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=36.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['B', 'E', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:00:59.220000', '0:01:11.120000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+          <t>('0:00:01.421269', '0:00:27.450839')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E:7', 'A', 'E']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:00.100000', '0:01:05.760000')]</t>
+          <t>('0:00:48', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:14.752537', '0:00:30.298296')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=14.752537']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
